--- a/DateBase/orders/Dang Nguyen_2025-6-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-4.xlsx
@@ -981,6 +981,9 @@
       <c r="G2" t="str">
         <v>01520151015101052015155555551515151010151510551815151020101015151010510151010207121051010151015101010</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
